--- a/Plum编写记录.xlsx
+++ b/Plum编写记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="12240"/>
+    <workbookView windowWidth="28095" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dlg临时对象被析构了
 </t>
     </r>
@@ -121,6 +127,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dlg调用view的creat会先走view的onsize然后dlg自身的onsize，最后再走一遍view的onsize
 ：view的creat时onsize一遍，view的onmove时再调用一遍
 onCreat() -&gt; onSize() -&gt; onInitUpdate()
@@ -143,6 +155,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ASSERT(pParentFrame == pDesktopWnd || pDesktopWnd-&gt;IsChild(pParentFrame)); 出错
 CView::GetParentFrame()必定是返回单文档程序的框架指针，而pDesktopWnd指针则是对话框指针，二者不相等，那么我们再看看pDesktopWnd-&gt;IsChild(pParentFrame)是否为TRUE，很显然框架窗口不可能是对话框窗口的父窗口。
 solution：
@@ -177,6 +195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">记得看视频的时候老师说过    创建CView的时候，也就是创建视图的时候，不要使用  Cview      m_view;这种方式
 而是使用Cview  *  pView=new   Cview();这种方式 。因为窗口在关闭的时候会调用一个叫做PostNCDestory（）的函数，
 这个函数的最后一句话是delete    this；所以就会导致一种现象  因为使用  Cview      m_view;进行构造了，
@@ -236,16 +260,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,7 +306,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,14 +329,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,69 +351,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,9 +380,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,12 +411,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,13 +483,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,151 +561,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,71 +602,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,7 +624,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,145 +722,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1197,7 +1218,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1248,7 +1269,7 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1256,7 +1277,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1267,10 +1288,10 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Plum编写记录.xlsx
+++ b/Plum编写记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>安装小番茄无法新建，提示版本不支持项目类型</t>
   </si>
@@ -225,6 +225,102 @@
 m_pFrame = new CFrameWnd(); //对话框内视图的父窗口
  m_pFrame-&gt;Create(NULL, NULL, WS_CHILD | WS_VISIBLE, rect, this);
 view创建的时候以该frameview作为父窗口即可</t>
+  </si>
+  <si>
+    <t>CMainFram下获取不到view的鼠标事件</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CMainFram下新建CFrameWnd*     m_pFrame;
+m_pFrame-&gt;MoveWindow(mainrect);
+m_pTabView-&gt;Create(NULL, NULL, WS_CHILD | WS_VISIBLE, mainrect, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, ID_MAIN_VIEW, NULL);
+同样的区域，自定义的frame挡住了创建的m_pTabView
+方法： 要么删掉m_pFrame要么创建继承m_pTabView自m_pFrame</t>
+    </r>
+  </si>
+  <si>
+    <t>父子消息间的传递
+CMainFram-&gt;m_pFrame-&gt;m_pTabView</t>
+  </si>
+  <si>
+    <t>CtrlTab添加dlg时create出错
+  LoginDlg it;
+ it.Create(IDC_Table1, &amp;m_tab);</t>
+  </si>
+  <si>
+    <r>
+      <t>对话框属性需要设置为Child，并且不能选中Visible
+栗子中dlg是作为资源画在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dlg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上，在rc和resource中都有ID
+plum中是作为view的成员变量动态创建
+测试证明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">实际dlg中画出来的资源ID是可以Dlg.Create(IDC_xxx, &amp;xxx);的
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态资源ID在Dlg的创建中并不适用
+rc文件如下：
+IDD_TAB DIALOGEX 0, 0, 457, 242
+STYLE DS_SETFONT | DS_MODALFRAME | DS_FIXEDSYS | WS_POPUP | WS_CAPTION | WS_SYSMENU
+CAPTION "Dialog"
+FONT 8, "MS Shell Dlg", 400, 0, 0x1
+BEGIN
+    PUSHBUTTON      "取消",IDCANCEL,400,221,50,14
+    DEFPUSHBUTTON   "确定",IDOK,347,221,50,14
+    CONTROL         "",IDC_TEST,"Static",SS_BLACKFRAME,61,52,20,20
+END</t>
+    </r>
+  </si>
+  <si>
+    <t>直接dlg下创建ctrltab控件，并且添加每个页签需要的资源</t>
   </si>
 </sst>
 </file>
@@ -237,7 +333,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,22 +349,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,17 +371,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,98 +499,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -411,25 +512,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,145 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +703,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,81 +799,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,137 +823,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,6 +961,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1215,13 +1322,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="59.5" style="1" customWidth="1"/>
@@ -1295,6 +1402,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" ht="89" customHeight="1" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="213" customHeight="1" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="89" customHeight="1"/>
+    <row r="11" ht="89" customHeight="1"/>
+    <row r="12" ht="89" customHeight="1"/>
+    <row r="13" ht="89" customHeight="1"/>
+    <row r="14" ht="89" customHeight="1"/>
+    <row r="15" ht="89" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Plum编写记录.xlsx
+++ b/Plum编写记录.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28095" windowHeight="12240"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="学习手册" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">CMainFram下新建CFrameWnd*     m_pFrame;
 m_pFrame-&gt;MoveWindow(mainrect);
 m_pTabView-&gt;Create(NULL, NULL, WS_CHILD | WS_VISIBLE, mainrect, </t>
@@ -267,6 +273,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对话框属性需要设置为Child，并且不能选中Visible
 栗子中dlg是作为资源画在</t>
     </r>
@@ -328,10 +340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -354,9 +366,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,121 +473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,6 +490,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -512,25 +524,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,19 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,121 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,9 +720,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,47 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -780,26 +807,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,133 +835,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -960,8 +972,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1325,85 +1337,85 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="112.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="112.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.25" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="2:3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="2:3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="270" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="81" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:4">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="108" spans="2:4">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="89" customHeight="1" spans="2:4">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1442,11 +1454,15 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="32.25" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Plum编写记录.xlsx
+++ b/Plum编写记录.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="学习手册" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="编译问题" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>安装小番茄无法新建，提示版本不支持项目类型</t>
   </si>
@@ -334,15 +334,28 @@
   <si>
     <t>直接dlg下创建ctrltab控件，并且添加每个页签需要的资源</t>
   </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>每次编译都提示：
+The intermediate directory (Debug\) contains files shared from another project
+error LNK2011: 未链接预编译对象;映像可能不能运行</t>
+  </si>
+  <si>
+    <t>多个项目的中间文件在同一个文件夹下
+Solution：
+中间目录按项目分开 ...$(ProjectName)\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -366,85 +379,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,6 +479,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -465,46 +509,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +537,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -536,31 +615,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,139 +681,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,12 +731,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -759,6 +785,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -777,41 +823,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,145 +836,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,7 +1349,7 @@
   <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1460,8 +1473,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="32.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="32.25" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1473,14 +1486,34 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="61" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
